--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H2">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I2">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J2">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.7077145890718</v>
+        <v>26.12444933333333</v>
       </c>
       <c r="N2">
-        <v>21.7077145890718</v>
+        <v>78.37334799999999</v>
       </c>
       <c r="O2">
-        <v>0.7021044925114998</v>
+        <v>0.7238861157526749</v>
       </c>
       <c r="P2">
-        <v>0.7021044925114998</v>
+        <v>0.7238861157526749</v>
       </c>
       <c r="Q2">
-        <v>53.08862317594626</v>
+        <v>75.53896716143021</v>
       </c>
       <c r="R2">
-        <v>53.08862317594626</v>
+        <v>679.8507044528719</v>
       </c>
       <c r="S2">
-        <v>0.08619261134489348</v>
+        <v>0.08785012815816591</v>
       </c>
       <c r="T2">
-        <v>0.08619261134489348</v>
+        <v>0.08785012815816591</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H3">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I3">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J3">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.79471999716139</v>
+        <v>3.818542</v>
       </c>
       <c r="N3">
-        <v>3.79471999716139</v>
+        <v>11.455626</v>
       </c>
       <c r="O3">
-        <v>0.1227347055305171</v>
+        <v>0.1058085282850919</v>
       </c>
       <c r="P3">
-        <v>0.1227347055305171</v>
+        <v>0.1058085282850919</v>
       </c>
       <c r="Q3">
-        <v>9.280408546045058</v>
+        <v>11.04133201286267</v>
       </c>
       <c r="R3">
-        <v>9.280408546045058</v>
+        <v>99.37198811576401</v>
       </c>
       <c r="S3">
-        <v>0.01506730819294471</v>
+        <v>0.01284082201301414</v>
       </c>
       <c r="T3">
-        <v>0.01506730819294471</v>
+        <v>0.01284082201301414</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.44561088907408</v>
+        <v>2.891504666666667</v>
       </c>
       <c r="H4">
-        <v>2.44561088907408</v>
+        <v>8.674514</v>
       </c>
       <c r="I4">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="J4">
-        <v>0.1227632243693153</v>
+        <v>0.1213590456377548</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.41563362241917</v>
+        <v>6.146179</v>
       </c>
       <c r="N4">
-        <v>5.41563362241917</v>
+        <v>18.438537</v>
       </c>
       <c r="O4">
-        <v>0.1751608019579831</v>
+        <v>0.1703053559622332</v>
       </c>
       <c r="P4">
-        <v>0.1751608019579831</v>
+        <v>0.1703053559622332</v>
       </c>
       <c r="Q4">
-        <v>13.24453255822403</v>
+        <v>17.77170526066867</v>
       </c>
       <c r="R4">
-        <v>13.24453255822403</v>
+        <v>159.945347346018</v>
       </c>
       <c r="S4">
-        <v>0.02150330483147708</v>
+        <v>0.02066809546657473</v>
       </c>
       <c r="T4">
-        <v>0.02150330483147708</v>
+        <v>0.02066809546657473</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.3792377021134</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H5">
-        <v>11.3792377021134</v>
+        <v>36.121289</v>
       </c>
       <c r="I5">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J5">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.7077145890718</v>
+        <v>26.12444933333333</v>
       </c>
       <c r="N5">
-        <v>21.7077145890718</v>
+        <v>78.37334799999999</v>
       </c>
       <c r="O5">
-        <v>0.7021044925114998</v>
+        <v>0.7238861157526749</v>
       </c>
       <c r="P5">
-        <v>0.7021044925114998</v>
+        <v>0.7238861157526749</v>
       </c>
       <c r="Q5">
-        <v>247.0172442786829</v>
+        <v>314.5495947783969</v>
       </c>
       <c r="R5">
-        <v>247.0172442786829</v>
+        <v>2830.946353005572</v>
       </c>
       <c r="S5">
-        <v>0.4010475325577067</v>
+        <v>0.365814138738856</v>
       </c>
       <c r="T5">
-        <v>0.4010475325577067</v>
+        <v>0.365814138738856</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.3792377021134</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H6">
-        <v>11.3792377021134</v>
+        <v>36.121289</v>
       </c>
       <c r="I6">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J6">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.79471999716139</v>
+        <v>3.818542</v>
       </c>
       <c r="N6">
-        <v>3.79471999716139</v>
+        <v>11.455626</v>
       </c>
       <c r="O6">
-        <v>0.1227347055305171</v>
+        <v>0.1058085282850919</v>
       </c>
       <c r="P6">
-        <v>0.1227347055305171</v>
+        <v>0.1058085282850919</v>
       </c>
       <c r="Q6">
-        <v>43.18102086066254</v>
+        <v>45.97688638021268</v>
       </c>
       <c r="R6">
-        <v>43.18102086066254</v>
+        <v>413.7919774219141</v>
       </c>
       <c r="S6">
-        <v>0.07010701588895529</v>
+        <v>0.05347008984360917</v>
       </c>
       <c r="T6">
-        <v>0.07010701588895529</v>
+        <v>0.05347008984360917</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.3792377021134</v>
+        <v>12.04042966666667</v>
       </c>
       <c r="H7">
-        <v>11.3792377021134</v>
+        <v>36.121289</v>
       </c>
       <c r="I7">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="J7">
-        <v>0.5712077572999406</v>
+        <v>0.505347637947847</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.41563362241917</v>
+        <v>6.146179</v>
       </c>
       <c r="N7">
-        <v>5.41563362241917</v>
+        <v>18.438537</v>
       </c>
       <c r="O7">
-        <v>0.1751608019579831</v>
+        <v>0.1703053559622332</v>
       </c>
       <c r="P7">
-        <v>0.1751608019579831</v>
+        <v>0.1703053559622332</v>
       </c>
       <c r="Q7">
-        <v>61.62578229706519</v>
+        <v>74.00263596824368</v>
       </c>
       <c r="R7">
-        <v>61.62578229706519</v>
+        <v>666.0237237141931</v>
       </c>
       <c r="S7">
-        <v>0.1000532088532786</v>
+        <v>0.08606340936538184</v>
       </c>
       <c r="T7">
-        <v>0.1000532088532786</v>
+        <v>0.08606340936538184</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.09651549515173</v>
+        <v>8.894099000000001</v>
       </c>
       <c r="H8">
-        <v>6.09651549515173</v>
+        <v>26.682297</v>
       </c>
       <c r="I8">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143983</v>
       </c>
       <c r="J8">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143982</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.7077145890718</v>
+        <v>26.12444933333333</v>
       </c>
       <c r="N8">
-        <v>21.7077145890718</v>
+        <v>78.37334799999999</v>
       </c>
       <c r="O8">
-        <v>0.7021044925114998</v>
+        <v>0.7238861157526749</v>
       </c>
       <c r="P8">
-        <v>0.7021044925114998</v>
+        <v>0.7238861157526749</v>
       </c>
       <c r="Q8">
-        <v>132.3414183566075</v>
+        <v>232.3534386911507</v>
       </c>
       <c r="R8">
-        <v>132.3414183566075</v>
+        <v>2091.180948220356</v>
       </c>
       <c r="S8">
-        <v>0.2148643486088996</v>
+        <v>0.270221848855653</v>
       </c>
       <c r="T8">
-        <v>0.2148643486088996</v>
+        <v>0.270221848855653</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.09651549515173</v>
+        <v>8.894099000000001</v>
       </c>
       <c r="H9">
-        <v>6.09651549515173</v>
+        <v>26.682297</v>
       </c>
       <c r="I9">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143983</v>
       </c>
       <c r="J9">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143982</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.79471999716139</v>
+        <v>3.818542</v>
       </c>
       <c r="N9">
-        <v>3.79471999716139</v>
+        <v>11.455626</v>
       </c>
       <c r="O9">
-        <v>0.1227347055305171</v>
+        <v>0.1058085282850919</v>
       </c>
       <c r="P9">
-        <v>0.1227347055305171</v>
+        <v>0.1058085282850919</v>
       </c>
       <c r="Q9">
-        <v>23.13456926245654</v>
+        <v>33.962490583658</v>
       </c>
       <c r="R9">
-        <v>23.13456926245654</v>
+        <v>305.662415252922</v>
       </c>
       <c r="S9">
-        <v>0.03756038144861711</v>
+        <v>0.03949761642846863</v>
       </c>
       <c r="T9">
-        <v>0.03756038144861711</v>
+        <v>0.03949761642846863</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.09651549515173</v>
+        <v>8.894099000000001</v>
       </c>
       <c r="H10">
-        <v>6.09651549515173</v>
+        <v>26.682297</v>
       </c>
       <c r="I10">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143983</v>
       </c>
       <c r="J10">
-        <v>0.3060290183307441</v>
+        <v>0.3732933164143982</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.41563362241917</v>
+        <v>6.146179</v>
       </c>
       <c r="N10">
-        <v>5.41563362241917</v>
+        <v>18.438537</v>
       </c>
       <c r="O10">
-        <v>0.1751608019579831</v>
+        <v>0.1703053559622332</v>
       </c>
       <c r="P10">
-        <v>0.1751608019579831</v>
+        <v>0.1703053559622332</v>
       </c>
       <c r="Q10">
-        <v>33.01649429514317</v>
+        <v>54.664724497721</v>
       </c>
       <c r="R10">
-        <v>33.01649429514317</v>
+        <v>491.982520479489</v>
       </c>
       <c r="S10">
-        <v>0.05360428827322747</v>
+        <v>0.06357385113027667</v>
       </c>
       <c r="T10">
-        <v>0.05360428827322747</v>
+        <v>0.06357385113027665</v>
       </c>
     </row>
   </sheetData>
